--- a/nanni_chip_rna_2022/documentation/integrated_data_list_comparisons_16avn.xlsx
+++ b/nanni_chip_rna_2022/documentation/integrated_data_list_comparisons_16avn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ufgi$/SHARE/McIntyre_Lab/Dros_CHIP_RNA_ms/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8793AB95-BEF9-3640-B6B3-C64BAE504302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9095907-B675-CB46-9522-4F8F4AE0B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="12400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>Analysis</t>
   </si>
@@ -346,18 +346,7 @@
     <t>Make flags for paper supplement</t>
   </si>
   <si>
-    <t>Make flags for the final file to be used in the paper supplement</t>
-  </si>
-  <si>
-    <t>$PROJ/scripts/integrated_chip_rna/add_chip_rna_paper_supp_flags.py</t>
-  </si>
-  <si>
     <t>$PROJ/scripts/integrated_chip_rna/run_add_chip_rna_paper_supp_flags_02avn.sh</t>
-  </si>
-  <si>
-    <t>$PROJ/RNAseq/model_output/mel_ttest_flags_with_anno_combo_flag_lit_gene_flag_GO_gene_flag.csv
-$PROJ/results/data_files/mel_sim_ortho_combo_flags_lit_gene_flag_GO_gene_flag.csv
-$PROJ/RNAseq/model_output/sim_ttest_flags_with_anno_combo_flag.csv</t>
   </si>
   <si>
     <t>$PROJ/supp_files/
@@ -401,12 +390,303 @@
 ortholog_chromatin_comparison_tests.txt
 ortholog_expression_comparison_tests.txt</t>
   </si>
+  <si>
+    <t>Make flags for the final file to be used in the paper supplement
+Merge feature-level chip and rna-seq flags</t>
+  </si>
+  <si>
+    <t>$PROJ/scripts/integrated_chip_rna/
+add_chip_rna_paper_supp_flags.py
+merge_features_4_supp.py</t>
+  </si>
+  <si>
+    <t>Import CSV</t>
+  </si>
+  <si>
+    <t>Import CSV file into JMP:
+From main page select Import -&gt; Text -&gt; Import Individual Text, CSV, or Excel Files
+Named study mel_sim_ortho_chip_rna
+File Type = Comma Separated
+Row Number of Variable Names = 1
+Data Start Row = 2</t>
+  </si>
+  <si>
+    <t>JMP Genomics version 9.1</t>
+  </si>
+  <si>
+    <t>$PROJ/supp_files/dmel_dsim_ortholog_chip_rna_flags.csv</t>
+  </si>
+  <si>
+    <t>$PROJ/JMP_mel_sim_chip_rna/*</t>
+  </si>
+  <si>
+    <t>Subset for one-to-one expressed</t>
+  </si>
+  <si>
+    <t>Need to filter this file for one-to-one orthologs expressed in both sexes of mel and sim and with the same X/A chromosomal assignment between the species
+Open dataset in JMP and at the top menu select Rows -&gt; Row Selection -&gt; Select Where
+Add in the following conditions by selecting the appropriate variables/values and pressing “Add Condition” at the bottom of the window for each condition:
+flag_one2one_ortholog == 1
+xsome == sim_xsome
+flag_expressed_mel == 1
+flag_expressed_sim == 1
+flag_sex_limited_mel == 0
+flag_sex_limited_sim == 0
+Select rows: if all conditions are met
+After all conditions have been added press OK
+Tables -&gt; Subset
+Selected Rows
+Output table name = dmel_dsim_ortholog_one2one
+Press OK</t>
+  </si>
+  <si>
+    <t>Subset for X or A</t>
+  </si>
+  <si>
+    <t>Need to filter for one-to-one orthologs of the X or autosomes (NOTE: need to do this filter separately since it is an OR and the others were AND)
+In the new subset dmel_dsim_ortholog_one2one dataset at the top menu select Rows -&gt; Row Selection -&gt; Select Where
+Add in the following conditions by selecting the appropriate variables/values and pressing “Add Condition” at the bottom of the window for each condition:
+xsome == X
+xsome == A
+Select rows: if any conditions is met
+After all conditions have been added press OK
+Tables -&gt; Subset
+Selected Rows
+Output table name = dmel_dsim_ortholog_one2oneXA
+Press OK
+File -&gt; Save As SAS Data Set
+(see output column for name)
+!!! Checked # of obs should be 9508</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$PROJ/JMP_mel_sim_chip_rna/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dmel_dsim_ortholog_chip_one2oneXA.sas7bdat</t>
+    </r>
+  </si>
+  <si>
+    <t>Gene Set Enrichment</t>
+  </si>
+  <si>
+    <t>Follow: Genomics -&gt; Annotation Analysis -&gt; General -&gt; Gene Set Enrichment
+General:
+    Add GO categories to category variables
+    Add all flags to significance variables (see input)
+    Primary delimeter = "|" (with quotes)
+Analysis:
+    Larger is more significant
+    Fisher
+    Significance variable cutoff = 1
+    Max category length = 512
+    All others default
+Multiple Testing:
+    FDR 0.05
+Annotation and Output: defaults</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$PROJ/JMP_mel_sim_chip_rna/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dmel_dsim_ortholog_chip_one2oneXA.sas7bdat
+Significance Variables Used:
+flag_M_mel_only
+flag_M_sim_only
+flag_M_mel_U_sim
+flag_M_sim_U_mel
+flag_F_mel_only
+flag_F_sim_only
+flag_F_mel_U_sim
+flag_F_sim_U_mel
+flag_M_mel_F_sim
+flag_F_mel_M_sim
+flag_conserved_sex_bias
+flag_conserved_male_bias
+flag_conserved_female_bias
+flag_conserved_unbaised
+flag_sex_bias_mel_only
+flag_sex_biase_sim_only
+flag_switch_M_U
+flag_switch_F_U
+flag_switch_M_F
+flag_diverged_sex_bias</t>
+    </r>
+  </si>
+  <si>
+    <t>Output JMP files</t>
+  </si>
+  <si>
+    <t>Select each GO category -&gt; View Data
+Get rid of SAS Names that have spaces in them by going to View -&gt; SAS Names
+Save as (CSV format)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$PROJ/JMP_mel_sim_chip_rna/
+dmel_dsim_one2oneXA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_biological_gse.csv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dmel_dsim_one2oneXA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_cellular_gse.csv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dmel_dsim_one2oneXA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>_molecular_gse.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>Merge in GO terms</t>
+  </si>
+  <si>
+    <t>Split GO IDs and terms by "|"
+Merge GO terms into JMP output
+Sort by FDR and keep all flags and GO term columns</t>
+  </si>
+  <si>
+    <t>export PATH=$HOME/conda/.envs/lab/bin:$PATH
+$PROJ/scripts/
+merge_go_terms.py
+sort_reformat_jmp_output.py</t>
+  </si>
+  <si>
+    <t>$PROJ/scripts/integrated_chip_rna/run_merge_go_terms_mel_sim_one2one.sh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">~/mclab/SHARE/McIntyre_Lab/useful_dmel_data/flybase617/dmel_annotation/gene_ontology.tsv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+$PROJ/JMP_mel_sim_chip_rna/dmel_dsim_one2oneXA_${goterm}_gse.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>$PROJ/JMP_mel_sim_chip_rna/
+dmel_dsim_one2oneXA_${goterm}_gse_w_terms.csv</t>
+  </si>
+  <si>
+    <t>goterm={biological,cellular,molecular}
+/ufrc/mcintyre/share/references/dmel_fb617/gene_ontology.tsv file is parsed from FlyBase file go-basic.obo.gz</t>
+  </si>
+  <si>
+    <t>$PROJ/RNAseq/model_output/mel_ttest_flags_with_anno_combo_flag_lit_gene_flag_GO_gene_flag.csv
+$PROJ/results/data_files/mel_sim_ortho_combo_flags_lit_gene_flag_GO_gene_flag.csv
+$PROJ/RNAseq/model_output/sim_ttest_flags_with_anno_combo_flag.csv
+$PROJ/figures/mel_sim_ortho_map_scatter/ortho_map2bothCoord_all.csv
+$PROJ/RNAseq/sample_summary/
+mel_5U_3U_TSS_frag_intr_inter_on_off_uq_ff.csv
+sim_5U_3U_TSS_frag_intr_inter_on_off_uq_ff.csv
+$PROJ/ChIPseq/detection_above_background/features/
+mel_chip_5U_3U_TSS_frag_intr_inter_flag.csv
+sim_chip_5U_3U_TSS_frag_intr_inter_flag.csv
+~/mclab/SHARE/McIntyre_Lab/useful_dmel_data/flybase617/fb_features/mel_5U_3U_TSS_frag_intr_inter_uniq.csv
+~/mclab/SHARE/McIntyre_Lab/useful_dsim_data/flybase202/fb_features/sim_5U_3U_TSS_frag_intr_inter_uniq.csv
+$PROJ/ChIPseq/detection_above_background/features/sample_level_DAI_files/*</t>
+  </si>
+  <si>
+    <t>$PROJ/supp_files/
+dmel_chip_rna_flags.csv
+dmel_chip_rna_flags_features.csv
+dsim_chip_rna_flags.csv
+dsim_chip_rna_flags_features.csv
+dmel_dsim_ortholog_chip_rna_flags.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -453,8 +733,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +751,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -480,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -510,6 +802,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1321,30 +1629,30 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="350" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,26 +1670,26 @@
         <v>16</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1391,6 +1699,195 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
+    <row r="34" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" ht="395" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" s="16" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
